--- a/docs/BOM/ProMicro_GPS.xlsx
+++ b/docs/BOM/ProMicro_GPS.xlsx
@@ -325,7 +325,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Aug 14 18:14:24 2020</t>
+    <t>Fri Aug 14 18:41:23 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>
